--- a/z-plugins-bssp/src/main/resources/ems-parameter职级管理模块实体类 .xlsx
+++ b/z-plugins-bssp/src/main/resources/ems-parameter职级管理模块实体类 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12660" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规范定义" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
   <si>
     <t>字段长度定义规范</t>
   </si>
@@ -434,6 +434,12 @@
     <t>rankNo</t>
   </si>
   <si>
+    <t>labelNo</t>
+  </si>
+  <si>
+    <t>标签编号</t>
+  </si>
+  <si>
     <t>labelName</t>
   </si>
   <si>
@@ -451,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -525,6 +531,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="文泉驿微米黑"/>
@@ -532,19 +544,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="文泉驿微米黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="文泉驿微米黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,6 +567,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,46 +664,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,74 +693,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="文泉驿微米黑"/>
@@ -732,181 +738,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,20 +950,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,6 +980,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -988,6 +1011,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,191 +1047,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,20 +1235,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,81 +1257,81 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1618,7 +1624,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="26"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="19"/>
@@ -1627,428 +1633,428 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="22" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="22" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="22" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" ht="15" spans="1:7">
-      <c r="A9" s="22" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="22" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" ht="15" spans="1:7">
-      <c r="A11" s="22" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="22" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="23" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="23" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="22" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="22" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="22" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" ht="15" spans="1:7">
-      <c r="A18" s="22" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" ht="15" spans="1:7">
-      <c r="A19" s="22" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" ht="15" spans="1:7">
-      <c r="A20" s="22" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" ht="15" spans="1:7">
-      <c r="A21" s="22" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" ht="15" spans="1:7">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2078,7 +2084,7 @@
     <col min="16" max="16" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:16">
+    <row r="1" ht="22.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2149,14 +2155,14 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:21">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -2171,17 +2177,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="17"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" ht="16.5" spans="1:21">
+    <row r="4" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -2198,17 +2204,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="17"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" ht="16.5" spans="1:21">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -2233,7 +2239,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2248,14 +2254,14 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
@@ -2598,17 +2604,20 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 G9 E17 G17 E18 G18 E9:E10 E11:E16 E19:E24 G10:G16 G19:G24 H3:H4 L2:L4 S2:U4 N9:S15">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C24 C9:C16">
+      <formula1>"String,Integer,BigDecimal"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C23">
       <formula1>"String,Integer,BigDecimal,LocalDateTime"</formula1>
@@ -2616,14 +2625,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C24 C9:C16">
-      <formula1>"String,Integer,BigDecimal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 G9 E17 G17 E18 G18 E9:E10 E11:E16 E19:E24 G10:G16 G19:G24 H3:H4 L2:L4 S2:U4 N9:S15">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2635,10 +2641,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2650,7 +2656,7 @@
     <col min="16" max="16" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:16">
+    <row r="1" ht="22.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2721,14 +2727,14 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:21">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -2743,17 +2749,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="17"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" ht="16.5" spans="1:21">
+    <row r="4" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -2770,17 +2776,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="17"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" ht="16.5" spans="1:21">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -2805,7 +2811,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2820,14 +2826,14 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
@@ -2900,7 +2906,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
         <v>129</v>
       </c>
@@ -2918,7 +2924,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
@@ -2938,10 +2944,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>91</v>
@@ -2951,41 +2957,41 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="9">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="D14" s="10">
+        <v>40</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="10">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2994,10 +3000,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>91</v>
@@ -3012,16 +3018,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="9">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="D17" s="10">
+        <v>40</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -3030,24 +3036,42 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="10">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="D18" s="9">
+        <v>20</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="10">
+        <v>40</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3062,29 +3086,29 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9 G9 E10 G10 E11 G11 N11:S11 G14 E12:E19 G12:G13 G15:G19 H3:H4 L2:L4 S2:U4 N9:S10 N12:S16">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K9:K10 K12:K16">
+      <formula1>"左对齐,居中,右对齐"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C9:C10 C12:C18">
+      <formula1>"String,Integer,BigDecimal"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
-      <formula1>"左对齐,居中,右对齐"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L9:L10 L12:L16">
+      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
-      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C17">
-      <formula1>"String,Integer,BigDecimal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9 G9 G13 E10:E18 G10:G12 G14:G18 H3:H4 L2:L4 S2:U4 N9:S15">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/z-plugins-bssp/src/main/resources/ems-parameter职级管理模块实体类 .xlsx
+++ b/z-plugins-bssp/src/main/resources/ems-parameter职级管理模块实体类 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="137">
   <si>
     <t>字段长度定义规范</t>
   </si>
@@ -451,15 +451,21 @@
   <si>
     <t>标签等级</t>
   </si>
+  <si>
+    <t>labelStandardType</t>
+  </si>
+  <si>
+    <t>指标标准分类</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -547,6 +553,81 @@
       <color rgb="FFFF0000"/>
       <name val="文泉驿微米黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -557,43 +638,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -602,8 +646,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,67 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +692,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="文泉驿微米黑"/>
@@ -738,121 +744,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,43 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,6 +952,26 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,17 +1015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1011,24 +1026,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,6 +1044,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1055,10 +1061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +1073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2162,7 +2168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="14.25" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -2187,7 +2193,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="14.25" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -2214,7 +2220,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="15" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -2239,7 +2245,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" ht="15" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2607,11 +2613,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 G9 E17 G17 E18 G18 E9:E10 E11:E16 E19:E24 G10:G16 G19:G24 H3:H4 L2:L4 S2:U4 N9:S15">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
-      <formula1>"左对齐,居中,右对齐"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C24 C9:C16">
-      <formula1>"String,Integer,BigDecimal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
+      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
@@ -2619,11 +2622,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C24 C9:C16">
+      <formula1>"String,Integer,BigDecimal"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C23">
       <formula1>"String,Integer,BigDecimal,LocalDateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
-      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
+      <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
@@ -2641,10 +2647,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2734,7 +2740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="14.25" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -2759,7 +2765,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="14.25" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -2786,7 +2792,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="15" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -2811,7 +2817,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" ht="15" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2962,54 +2968,54 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="9">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="D15" s="10">
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="10">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="D16" s="9">
+        <v>20</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -3018,10 +3024,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>91</v>
@@ -3036,16 +3042,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="9">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="D18" s="10">
+        <v>40</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3054,24 +3060,42 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="10">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="D19" s="9">
+        <v>20</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="10">
+        <v>40</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3086,26 +3110,26 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9 G9 E10 G10 E11 G11 N11:S11 G14 E12:E19 G12:G13 G15:G19 H3:H4 L2:L4 S2:U4 N9:S10 N12:S16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9 G9 E10 G10 E11 G11 N11:S11 E14 G14 N14:S14 G15 E12:E13 E15:E20 G12:G13 G16:G20 H3:H4 L2:L4 S2:U4 N9:S10 N12:S13 N15:S17">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K9:K10 K12:K16">
-      <formula1>"左对齐,居中,右对齐"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C9:C10 C12:C18">
-      <formula1>"String,Integer,BigDecimal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L14 L9:L10 L12:L13 L15:L17">
+      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C9:C10 C12:C13 C15:C19">
+      <formula1>"String,Integer,BigDecimal"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L9:L10 L12:L16">
-      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K9:K10 K12:K13 K15:K17">
+      <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
       <formula1>"同步单层,异步单层,异步多层"</formula1>
